--- a/November 2017/10/uturn/uturn 比较结果图.xlsx
+++ b/November 2017/10/uturn/uturn 比较结果图.xlsx
@@ -341,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +360,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,13 +410,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,7 +700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -727,34 +735,34 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -778,54 +786,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1286,19 +1294,19 @@
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1438,17 +1446,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="5" t="s">
         <v>101</v>
       </c>
     </row>

--- a/November 2017/10/uturn/uturn 比较结果图.xlsx
+++ b/November 2017/10/uturn/uturn 比较结果图.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -372,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +397,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -410,14 +422,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,70 +801,74 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1294,19 +1312,19 @@
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1446,17 +1464,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>101</v>
       </c>
     </row>

--- a/November 2017/10/uturn/uturn 比较结果图.xlsx
+++ b/November 2017/10/uturn/uturn 比较结果图.xlsx
@@ -422,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -432,6 +432,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -864,7 +865,7 @@
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="7"/>
